--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -3193,87 +3193,6 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> INV-3337</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> January 25, 2016</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> January 31, 2016</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $85.00</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $93.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> INV-3337</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> January 25, 2016</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> January 31, 2016</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $85.00</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $93.50</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> INV-3337</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> January 25, 2016</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> January 31, 2016</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $85.00</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> $93.50</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -424,13 +424,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E203"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
       <selection activeCell="M97" sqref="M97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.85546875" customWidth="1" min="1" max="1"/>
     <col width="18.140625" customWidth="1" min="2" max="2"/>
@@ -3193,6 +3193,2733 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> INV-3337</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 25, 2016</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> January 31, 2016</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $85.00</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> $93.50</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Invoice_Information.xlsx
+++ b/Invoice_Information.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -134,44 +134,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -198,32 +198,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -250,24 +232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -279,142 +243,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -426,38 +414,31 @@
   </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="H202" sqref="H202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
-    <col width="18.140625" customWidth="1" min="2" max="2"/>
-    <col width="20.42578125" customWidth="1" min="3" max="3"/>
-    <col width="17.7109375" customWidth="1" min="4" max="4"/>
-    <col width="12.5703125" customWidth="1" min="5" max="5"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Invoice Number</t>
+          <t>Company Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Invoice Date</t>
+          <t>Invoice Number</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Due Date</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Sub Total</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
